--- a/data/trans_bre/P07B_R_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.844798559475636</v>
+        <v>1.844798559475635</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.8255404166316981</v>
+        <v>0.8255404166316972</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3328053191658248</v>
+        <v>-0.3273777174911834</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1751185896035854</v>
+        <v>-0.1500074207452149</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.102703446091494</v>
+        <v>3.903559656364752</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.384862254840754</v>
+        <v>3.398467191834386</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.221785255137651</v>
+        <v>1.221785255137652</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2452894663077128</v>
+        <v>0.2452894663077131</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.928777684205769</v>
+        <v>-1.937541842205202</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2769274972407918</v>
+        <v>-0.3084319967538805</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.830495330518385</v>
+        <v>3.927138562655468</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.116066916876757</v>
+        <v>1.080688035762537</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.325289935276271</v>
+        <v>3.325289935276273</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.5270130251967902</v>
+        <v>0.5270130251967904</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6282466714951829</v>
+        <v>0.1612862076190487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.07390268932511093</v>
+        <v>0.001814202526475944</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.402293959740033</v>
+        <v>6.586486309404938</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.34648730514455</v>
+        <v>1.381729965538361</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.185280912647048</v>
+        <v>-3.107999544772578</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2455613562244172</v>
+        <v>-0.2273893362236535</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.280499089501332</v>
+        <v>6.177880062766892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8835568279480904</v>
+        <v>0.8392873644070842</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.003408654504596</v>
+        <v>4.003408654504597</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1.654496534769155</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.226395022782584</v>
+        <v>1.309221211463986</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.1672867364186557</v>
+        <v>0.2772575133625109</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.391660364249501</v>
+        <v>6.667699058052974</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4.462908498577807</v>
+        <v>5.537050999573946</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2552152772630004</v>
+        <v>0.2552152772629962</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.02763142779290588</v>
+        <v>0.02763142779290543</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.324072785852477</v>
+        <v>-3.663214940142776</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2959550751716552</v>
+        <v>-0.3214891031878766</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.065157293459396</v>
+        <v>3.973851206507641</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5882837323699197</v>
+        <v>0.5603714960743095</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.304022721564951</v>
+        <v>3.212519250523704</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3272796465801276</v>
+        <v>0.3002072901375639</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.801910558639115</v>
+        <v>9.75793229755322</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.525474646907771</v>
+        <v>1.541753622046526</v>
       </c>
     </row>
     <row r="25">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.864083885065893</v>
+        <v>1.684178458416954</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2710339875876356</v>
+        <v>0.2482224328236839</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.585042703917503</v>
+        <v>6.452153034846282</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.618520301510901</v>
+        <v>1.556893374299844</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>3.428283956869549</v>
+        <v>3.428283956869548</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.550449582359787</v>
+        <v>0.5504495823597866</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.217086967032508</v>
+        <v>2.291899298717254</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.327678275000358</v>
+        <v>0.3274296778928618</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.580640164478269</v>
+        <v>4.638346241410514</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.8296960830299138</v>
+        <v>0.8381565726459553</v>
       </c>
     </row>
     <row r="31">
